--- a/reports.xlsx
+++ b/reports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,37 +421,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>report_id</t>
+          <t>ID задания</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>task_id</t>
+          <t>Имя пользователя</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>user_id</t>
+          <t>ID пользователя</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>report_text</t>
+          <t>Текст задания</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>created_at</t>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дата выполнения</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Дата назначения</t>
         </is>
       </c>
     </row>
@@ -460,82 +472,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
         <v>6262590016</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Пользователь .. завершил задание.</t>
+          <t>111</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-22 04:54:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6262590016</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Пользователь .. завершил задание.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-05-22 04:55:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6262590016</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Пользователь .. завершил задание.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-05-22 04:56:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6262590016</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Пользователь .. завершил задание.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-05-22 05:08:42</t>
+          <t>завершено</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-05-26 23:48:41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-05-26 17:48:11</t>
         </is>
       </c>
     </row>

--- a/reports.xlsx
+++ b/reports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,9 +422,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
@@ -438,12 +438,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>ID пользователя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Имя пользователя</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ID пользователя</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -497,6 +497,39 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>2025-05-26 17:48:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6262590016</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>прунгыимраоим в</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>завершено</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-05-26 23:59:03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-05-26 23:58:31</t>
         </is>
       </c>
     </row>
